--- a/Tech2CapabilityMatrix.xlsx
+++ b/Tech2CapabilityMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scmunk/Projects/decisions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83DECC51-67F3-A34E-8D79-787A80E14FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D556C523-7AAA-CA4A-8A1B-2695D77F4005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F84815BC-ECA7-EB44-9497-49A3F02E8DBE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{F84815BC-ECA7-EB44-9497-49A3F02E8DBE}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="255">
   <si>
     <t>Name</t>
   </si>
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>These definition are very lean (i.e. awful). Please edit them to suite your needs.</t>
+  </si>
+  <si>
+    <t>OpenLDAP</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7F438F-088C-B249-B969-5B98D1BB511D}">
   <dimension ref="B3:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2789,11 +2792,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17C6A2F-4E40-D944-B5FC-CD82E87C87D1}">
   <dimension ref="A1:BW32"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="A9:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3713,26 +3716,40 @@
     <row r="8" spans="1:75" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>254</v>
+      </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>165</v>
+      </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="O8" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>166</v>
+      </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
@@ -4786,270 +4803,270 @@
       </c>
       <c r="H21" s="2">
         <f>COUNTIF(H3:H20, "M")</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="2">
+        <f>COUNTIF(I3:I20, "M")</f>
+        <v>3</v>
+      </c>
+      <c r="J21" s="2">
+        <f>COUNTIF(J3:J20, "M")</f>
         <v>1</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" ref="I21:AC21" si="2">COUNTIF(I3:I20, "M")</f>
-        <v>2</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="2"/>
+      <c r="K21" s="2">
+        <f>COUNTIF(K3:K20, "M")</f>
+        <v>3</v>
+      </c>
+      <c r="L21" s="2">
+        <f>COUNTIF(L3:L20, "M")</f>
         <v>1</v>
       </c>
-      <c r="K21" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="2"/>
+      <c r="M21" s="2">
+        <f>COUNTIF(M3:M20, "M")</f>
         <v>1</v>
       </c>
-      <c r="M21" s="2">
-        <f t="shared" si="2"/>
+      <c r="N21" s="2">
+        <f>COUNTIF(N3:N20, "M")</f>
         <v>1</v>
       </c>
-      <c r="N21" s="2">
-        <f t="shared" si="2"/>
+      <c r="O21" s="2">
+        <f>COUNTIF(O3:O20, "M")</f>
+        <v>3</v>
+      </c>
+      <c r="P21" s="2">
+        <f>COUNTIF(P3:P20, "M")</f>
         <v>1</v>
       </c>
-      <c r="O21" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q21" s="2">
+        <f>COUNTIF(Q3:Q20, "M")</f>
         <v>1</v>
       </c>
-      <c r="Q21" s="2">
-        <f t="shared" si="2"/>
+      <c r="R21" s="2">
+        <f>COUNTIF(R3:R20, "M")</f>
         <v>1</v>
       </c>
-      <c r="R21" s="2">
-        <f t="shared" si="2"/>
+      <c r="S21" s="2">
+        <f>COUNTIF(S3:S20, "M")</f>
         <v>1</v>
       </c>
-      <c r="S21" s="2">
-        <f t="shared" si="2"/>
+      <c r="T21" s="2">
+        <f>COUNTIF(T3:T20, "M")</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <f>COUNTIF(U3:U20, "M")</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <f>COUNTIF(V3:V20, "M")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <f>COUNTIF(W3:W20, "M")</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
+        <f>COUNTIF(X3:X20, "M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
+        <f>COUNTIF(Y3:Y20, "M")</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <f>COUNTIF(Z3:Z20, "M")</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <f>COUNTIF(AA3:AA20, "M")</f>
         <v>1</v>
       </c>
-      <c r="T21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="2">
-        <f t="shared" si="2"/>
+      <c r="AB21" s="2">
+        <f>COUNTIF(AB3:AB20, "M")</f>
         <v>1</v>
       </c>
-      <c r="AB21" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="AC21" s="2">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(AC3:AC20, "M")</f>
         <v>0</v>
       </c>
       <c r="AD21" s="2">
-        <f t="shared" ref="AD21" si="3">COUNTIF(AD3:AD20, "M")</f>
+        <f>COUNTIF(AD3:AD20, "M")</f>
         <v>0</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" ref="AE21" si="4">COUNTIF(AE3:AE20, "M")</f>
+        <f>COUNTIF(AE3:AE20, "M")</f>
         <v>0</v>
       </c>
       <c r="AF21" s="2">
-        <f t="shared" ref="AF21" si="5">COUNTIF(AF3:AF20, "M")</f>
+        <f>COUNTIF(AF3:AF20, "M")</f>
         <v>0</v>
       </c>
       <c r="AG21" s="2">
-        <f t="shared" ref="AG21" si="6">COUNTIF(AG3:AG20, "M")</f>
+        <f>COUNTIF(AG3:AG20, "M")</f>
         <v>0</v>
       </c>
       <c r="AH21" s="2">
-        <f t="shared" ref="AH21" si="7">COUNTIF(AH3:AH20, "M")</f>
+        <f>COUNTIF(AH3:AH20, "M")</f>
         <v>0</v>
       </c>
       <c r="AI21" s="2">
-        <f t="shared" ref="AI21" si="8">COUNTIF(AI3:AI20, "M")</f>
+        <f>COUNTIF(AI3:AI20, "M")</f>
         <v>0</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" ref="AJ21" si="9">COUNTIF(AJ3:AJ20, "M")</f>
+        <f>COUNTIF(AJ3:AJ20, "M")</f>
         <v>0</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" ref="AK21" si="10">COUNTIF(AK3:AK20, "M")</f>
+        <f>COUNTIF(AK3:AK20, "M")</f>
         <v>0</v>
       </c>
       <c r="AL21" s="2">
-        <f t="shared" ref="AL21" si="11">COUNTIF(AL3:AL20, "M")</f>
+        <f>COUNTIF(AL3:AL20, "M")</f>
         <v>0</v>
       </c>
       <c r="AM21" s="2">
-        <f t="shared" ref="AM21" si="12">COUNTIF(AM3:AM20, "M")</f>
+        <f>COUNTIF(AM3:AM20, "M")</f>
         <v>0</v>
       </c>
       <c r="AN21" s="2">
-        <f t="shared" ref="AN21" si="13">COUNTIF(AN3:AN20, "M")</f>
+        <f>COUNTIF(AN3:AN20, "M")</f>
         <v>0</v>
       </c>
       <c r="AO21" s="2">
-        <f t="shared" ref="AO21" si="14">COUNTIF(AO3:AO20, "M")</f>
+        <f>COUNTIF(AO3:AO20, "M")</f>
         <v>0</v>
       </c>
       <c r="AP21" s="2">
-        <f t="shared" ref="AP21" si="15">COUNTIF(AP3:AP20, "M")</f>
+        <f>COUNTIF(AP3:AP20, "M")</f>
         <v>0</v>
       </c>
       <c r="AQ21" s="2">
-        <f t="shared" ref="AQ21" si="16">COUNTIF(AQ3:AQ20, "M")</f>
+        <f>COUNTIF(AQ3:AQ20, "M")</f>
         <v>0</v>
       </c>
       <c r="AR21" s="2">
-        <f t="shared" ref="AR21" si="17">COUNTIF(AR3:AR20, "M")</f>
+        <f>COUNTIF(AR3:AR20, "M")</f>
         <v>0</v>
       </c>
       <c r="AS21" s="2">
-        <f t="shared" ref="AS21" si="18">COUNTIF(AS3:AS20, "M")</f>
+        <f>COUNTIF(AS3:AS20, "M")</f>
         <v>0</v>
       </c>
       <c r="AT21" s="2">
-        <f t="shared" ref="AT21" si="19">COUNTIF(AT3:AT20, "M")</f>
+        <f>COUNTIF(AT3:AT20, "M")</f>
         <v>0</v>
       </c>
       <c r="AU21" s="2">
-        <f t="shared" ref="AU21" si="20">COUNTIF(AU3:AU20, "M")</f>
+        <f>COUNTIF(AU3:AU20, "M")</f>
         <v>0</v>
       </c>
       <c r="AV21" s="2">
-        <f t="shared" ref="AV21" si="21">COUNTIF(AV3:AV20, "M")</f>
+        <f>COUNTIF(AV3:AV20, "M")</f>
         <v>0</v>
       </c>
       <c r="AW21" s="2">
-        <f t="shared" ref="AW21" si="22">COUNTIF(AW3:AW20, "M")</f>
+        <f>COUNTIF(AW3:AW20, "M")</f>
         <v>0</v>
       </c>
       <c r="AX21" s="2">
-        <f t="shared" ref="AX21" si="23">COUNTIF(AX3:AX20, "M")</f>
+        <f>COUNTIF(AX3:AX20, "M")</f>
         <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <f t="shared" ref="AY21" si="24">COUNTIF(AY3:AY20, "M")</f>
+        <f>COUNTIF(AY3:AY20, "M")</f>
         <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <f t="shared" ref="AZ21" si="25">COUNTIF(AZ3:AZ20, "M")</f>
+        <f>COUNTIF(AZ3:AZ20, "M")</f>
         <v>0</v>
       </c>
       <c r="BA21" s="2">
-        <f t="shared" ref="BA21" si="26">COUNTIF(BA3:BA20, "M")</f>
+        <f>COUNTIF(BA3:BA20, "M")</f>
         <v>0</v>
       </c>
       <c r="BB21" s="2">
-        <f t="shared" ref="BB21" si="27">COUNTIF(BB3:BB20, "M")</f>
+        <f>COUNTIF(BB3:BB20, "M")</f>
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <f t="shared" ref="BC21" si="28">COUNTIF(BC3:BC20, "M")</f>
+        <f>COUNTIF(BC3:BC20, "M")</f>
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <f t="shared" ref="BD21" si="29">COUNTIF(BD3:BD20, "M")</f>
+        <f>COUNTIF(BD3:BD20, "M")</f>
         <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <f t="shared" ref="BE21" si="30">COUNTIF(BE3:BE20, "M")</f>
+        <f>COUNTIF(BE3:BE20, "M")</f>
         <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <f t="shared" ref="BF21" si="31">COUNTIF(BF3:BF20, "M")</f>
+        <f>COUNTIF(BF3:BF20, "M")</f>
         <v>0</v>
       </c>
       <c r="BG21" s="2">
-        <f t="shared" ref="BG21" si="32">COUNTIF(BG3:BG20, "M")</f>
+        <f>COUNTIF(BG3:BG20, "M")</f>
         <v>0</v>
       </c>
       <c r="BH21" s="2">
-        <f t="shared" ref="BH21" si="33">COUNTIF(BH3:BH20, "M")</f>
+        <f>COUNTIF(BH3:BH20, "M")</f>
         <v>0</v>
       </c>
       <c r="BI21" s="2">
-        <f t="shared" ref="BI21" si="34">COUNTIF(BI3:BI20, "M")</f>
+        <f>COUNTIF(BI3:BI20, "M")</f>
         <v>0</v>
       </c>
       <c r="BJ21" s="2">
-        <f t="shared" ref="BJ21" si="35">COUNTIF(BJ3:BJ20, "M")</f>
+        <f>COUNTIF(BJ3:BJ20, "M")</f>
         <v>0</v>
       </c>
       <c r="BK21" s="2">
-        <f t="shared" ref="BK21" si="36">COUNTIF(BK3:BK20, "M")</f>
+        <f>COUNTIF(BK3:BK20, "M")</f>
         <v>0</v>
       </c>
       <c r="BL21" s="2">
-        <f t="shared" ref="BL21" si="37">COUNTIF(BL3:BL20, "M")</f>
+        <f>COUNTIF(BL3:BL20, "M")</f>
         <v>0</v>
       </c>
       <c r="BM21" s="2">
-        <f t="shared" ref="BM21" si="38">COUNTIF(BM3:BM20, "M")</f>
+        <f>COUNTIF(BM3:BM20, "M")</f>
         <v>0</v>
       </c>
       <c r="BN21" s="2">
-        <f t="shared" ref="BN21" si="39">COUNTIF(BN3:BN20, "M")</f>
+        <f>COUNTIF(BN3:BN20, "M")</f>
         <v>0</v>
       </c>
       <c r="BO21" s="2">
-        <f t="shared" ref="BO21" si="40">COUNTIF(BO3:BO20, "M")</f>
+        <f>COUNTIF(BO3:BO20, "M")</f>
         <v>0</v>
       </c>
       <c r="BP21" s="2">
-        <f t="shared" ref="BP21" si="41">COUNTIF(BP3:BP20, "M")</f>
+        <f>COUNTIF(BP3:BP20, "M")</f>
         <v>0</v>
       </c>
       <c r="BQ21" s="2">
-        <f t="shared" ref="BQ21" si="42">COUNTIF(BQ3:BQ20, "M")</f>
+        <f>COUNTIF(BQ3:BQ20, "M")</f>
         <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <f t="shared" ref="BR21" si="43">COUNTIF(BR3:BR20, "M")</f>
+        <f>COUNTIF(BR3:BR20, "M")</f>
         <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <f t="shared" ref="BS21" si="44">COUNTIF(BS3:BS20, "M")</f>
+        <f>COUNTIF(BS3:BS20, "M")</f>
         <v>0</v>
       </c>
       <c r="BT21" s="2">
-        <f t="shared" ref="BT21" si="45">COUNTIF(BT3:BT20, "M")</f>
+        <f>COUNTIF(BT3:BT20, "M")</f>
         <v>0</v>
       </c>
       <c r="BU21" s="2">
-        <f t="shared" ref="BU21" si="46">COUNTIF(BU3:BU20, "M")</f>
+        <f>COUNTIF(BU3:BU20, "M")</f>
         <v>0</v>
       </c>
       <c r="BV21" s="2">
-        <f t="shared" ref="BV21" si="47">COUNTIF(BV3:BV20, "M")</f>
+        <f>COUNTIF(BV3:BV20, "M")</f>
         <v>0</v>
       </c>
     </row>
@@ -5066,267 +5083,267 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" ref="I22:BT22" si="48">COUNTIF(I3:I20, "P")</f>
+        <f>COUNTIF(I3:I20, "P")</f>
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(J3:J20, "P")</f>
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
+        <f>COUNTIF(K3:K20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <f>COUNTIF(L3:L20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <f>COUNTIF(M3:M20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <f>COUNTIF(N3:N20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <f>COUNTIF(O3:O20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <f>COUNTIF(P3:P20, "P")</f>
+        <v>2</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>COUNTIF(Q3:Q20, "P")</f>
         <v>1</v>
       </c>
-      <c r="K22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <f t="shared" si="48"/>
+      <c r="R22" s="3">
+        <f>COUNTIF(R3:R20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <f>COUNTIF(S3:S20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <f>COUNTIF(T3:T20, "P")</f>
         <v>1</v>
       </c>
-      <c r="Q22" s="3">
-        <f t="shared" si="48"/>
+      <c r="U22" s="3">
+        <f>COUNTIF(U3:U20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <f>COUNTIF(V3:V20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <f>COUNTIF(W3:W20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <f>COUNTIF(X3:X20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <f>COUNTIF(Y3:Y20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <f>COUNTIF(Z3:Z20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <f>COUNTIF(AA3:AA20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <f>COUNTIF(AB3:AB20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <f>COUNTIF(AC3:AC20, "P")</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <f>COUNTIF(AD3:AD20, "P")</f>
         <v>1</v>
       </c>
-      <c r="R22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="U22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="3">
-        <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
       <c r="AE22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AE3:AE20, "P")</f>
         <v>0</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AF3:AF20, "P")</f>
         <v>0</v>
       </c>
       <c r="AG22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AG3:AG20, "P")</f>
         <v>0</v>
       </c>
       <c r="AH22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AH3:AH20, "P")</f>
         <v>0</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AI3:AI20, "P")</f>
         <v>0</v>
       </c>
       <c r="AJ22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AJ3:AJ20, "P")</f>
         <v>0</v>
       </c>
       <c r="AK22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AK3:AK20, "P")</f>
         <v>0</v>
       </c>
       <c r="AL22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AL3:AL20, "P")</f>
         <v>0</v>
       </c>
       <c r="AM22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AM3:AM20, "P")</f>
         <v>0</v>
       </c>
       <c r="AN22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AN3:AN20, "P")</f>
         <v>0</v>
       </c>
       <c r="AO22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AO3:AO20, "P")</f>
         <v>0</v>
       </c>
       <c r="AP22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AP3:AP20, "P")</f>
         <v>0</v>
       </c>
       <c r="AQ22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AQ3:AQ20, "P")</f>
         <v>0</v>
       </c>
       <c r="AR22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AR3:AR20, "P")</f>
         <v>0</v>
       </c>
       <c r="AS22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AS3:AS20, "P")</f>
         <v>0</v>
       </c>
       <c r="AT22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AT3:AT20, "P")</f>
         <v>0</v>
       </c>
       <c r="AU22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AU3:AU20, "P")</f>
         <v>0</v>
       </c>
       <c r="AV22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AV3:AV20, "P")</f>
         <v>0</v>
       </c>
       <c r="AW22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AW3:AW20, "P")</f>
         <v>0</v>
       </c>
       <c r="AX22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AX3:AX20, "P")</f>
         <v>0</v>
       </c>
       <c r="AY22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AY3:AY20, "P")</f>
         <v>0</v>
       </c>
       <c r="AZ22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(AZ3:AZ20, "P")</f>
         <v>0</v>
       </c>
       <c r="BA22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BA3:BA20, "P")</f>
         <v>0</v>
       </c>
       <c r="BB22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BB3:BB20, "P")</f>
         <v>0</v>
       </c>
       <c r="BC22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BC3:BC20, "P")</f>
         <v>0</v>
       </c>
       <c r="BD22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BD3:BD20, "P")</f>
         <v>0</v>
       </c>
       <c r="BE22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BE3:BE20, "P")</f>
         <v>0</v>
       </c>
       <c r="BF22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BF3:BF20, "P")</f>
         <v>0</v>
       </c>
       <c r="BG22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BG3:BG20, "P")</f>
         <v>0</v>
       </c>
       <c r="BH22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BH3:BH20, "P")</f>
         <v>0</v>
       </c>
       <c r="BI22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BI3:BI20, "P")</f>
         <v>0</v>
       </c>
       <c r="BJ22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BJ3:BJ20, "P")</f>
         <v>0</v>
       </c>
       <c r="BK22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BK3:BK20, "P")</f>
         <v>0</v>
       </c>
       <c r="BL22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BL3:BL20, "P")</f>
         <v>0</v>
       </c>
       <c r="BM22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BM3:BM20, "P")</f>
         <v>0</v>
       </c>
       <c r="BN22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BN3:BN20, "P")</f>
         <v>0</v>
       </c>
       <c r="BO22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BO3:BO20, "P")</f>
         <v>0</v>
       </c>
       <c r="BP22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BP3:BP20, "P")</f>
         <v>0</v>
       </c>
       <c r="BQ22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BQ3:BQ20, "P")</f>
         <v>0</v>
       </c>
       <c r="BR22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BR3:BR20, "P")</f>
         <v>0</v>
       </c>
       <c r="BS22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BS3:BS20, "P")</f>
         <v>0</v>
       </c>
       <c r="BT22" s="3">
-        <f t="shared" si="48"/>
+        <f>COUNTIF(BT3:BT20, "P")</f>
         <v>0</v>
       </c>
       <c r="BU22" s="3">
-        <f t="shared" ref="BU22:BV22" si="49">COUNTIF(BU3:BU20, "P")</f>
+        <f>COUNTIF(BU3:BU20, "P")</f>
         <v>0</v>
       </c>
       <c r="BV22" s="3">
-        <f t="shared" si="49"/>
+        <f>COUNTIF(BV3:BV20, "P")</f>
         <v>0</v>
       </c>
     </row>
@@ -5519,267 +5536,267 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:L26" si="50">I25-I24</f>
+        <f t="shared" ref="I26:L26" si="2">I25-I24</f>
         <v>-1</v>
       </c>
       <c r="J26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26" si="51">M25-M24</f>
+        <f t="shared" ref="M26" si="3">M25-M24</f>
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26" si="52">N25-N24</f>
+        <f t="shared" ref="N26" si="4">N25-N24</f>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26" si="53">O25-O24</f>
+        <f t="shared" ref="O26" si="5">O25-O24</f>
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" ref="P26" si="54">P25-P24</f>
+        <f t="shared" ref="P26" si="6">P25-P24</f>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26" si="55">Q25-Q24</f>
+        <f t="shared" ref="Q26" si="7">Q25-Q24</f>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" ref="R26" si="56">R25-R24</f>
+        <f t="shared" ref="R26" si="8">R25-R24</f>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26" si="57">S25-S24</f>
+        <f t="shared" ref="S26" si="9">S25-S24</f>
         <v>0</v>
       </c>
       <c r="T26">
-        <f t="shared" ref="T26" si="58">T25-T24</f>
+        <f t="shared" ref="T26" si="10">T25-T24</f>
         <v>0</v>
       </c>
       <c r="U26">
-        <f t="shared" ref="U26" si="59">U25-U24</f>
+        <f t="shared" ref="U26" si="11">U25-U24</f>
         <v>0</v>
       </c>
       <c r="V26">
-        <f t="shared" ref="V26" si="60">V25-V24</f>
+        <f t="shared" ref="V26" si="12">V25-V24</f>
         <v>0</v>
       </c>
       <c r="W26">
-        <f t="shared" ref="W26" si="61">W25-W24</f>
+        <f t="shared" ref="W26" si="13">W25-W24</f>
         <v>0</v>
       </c>
       <c r="X26">
-        <f t="shared" ref="X26" si="62">X25-X24</f>
+        <f t="shared" ref="X26" si="14">X25-X24</f>
         <v>0</v>
       </c>
       <c r="Y26">
-        <f t="shared" ref="Y26" si="63">Y25-Y24</f>
+        <f t="shared" ref="Y26" si="15">Y25-Y24</f>
         <v>0</v>
       </c>
       <c r="Z26">
-        <f t="shared" ref="Z26" si="64">Z25-Z24</f>
+        <f t="shared" ref="Z26" si="16">Z25-Z24</f>
         <v>0</v>
       </c>
       <c r="AA26">
-        <f t="shared" ref="AA26" si="65">AA25-AA24</f>
+        <f t="shared" ref="AA26" si="17">AA25-AA24</f>
         <v>0</v>
       </c>
       <c r="AB26">
-        <f t="shared" ref="AB26" si="66">AB25-AB24</f>
+        <f t="shared" ref="AB26" si="18">AB25-AB24</f>
         <v>0</v>
       </c>
       <c r="AC26">
-        <f t="shared" ref="AC26" si="67">AC25-AC24</f>
+        <f t="shared" ref="AC26" si="19">AC25-AC24</f>
         <v>0</v>
       </c>
       <c r="AD26">
-        <f t="shared" ref="AD26" si="68">AD25-AD24</f>
+        <f t="shared" ref="AD26" si="20">AD25-AD24</f>
         <v>0</v>
       </c>
       <c r="AE26">
-        <f t="shared" ref="AE26" si="69">AE25-AE24</f>
+        <f t="shared" ref="AE26" si="21">AE25-AE24</f>
         <v>0</v>
       </c>
       <c r="AF26">
-        <f t="shared" ref="AF26" si="70">AF25-AF24</f>
+        <f t="shared" ref="AF26" si="22">AF25-AF24</f>
         <v>0</v>
       </c>
       <c r="AG26">
-        <f t="shared" ref="AG26" si="71">AG25-AG24</f>
+        <f t="shared" ref="AG26" si="23">AG25-AG24</f>
         <v>0</v>
       </c>
       <c r="AH26">
-        <f t="shared" ref="AH26" si="72">AH25-AH24</f>
+        <f t="shared" ref="AH26" si="24">AH25-AH24</f>
         <v>0</v>
       </c>
       <c r="AI26">
-        <f t="shared" ref="AI26" si="73">AI25-AI24</f>
+        <f t="shared" ref="AI26" si="25">AI25-AI24</f>
         <v>0</v>
       </c>
       <c r="AJ26">
-        <f t="shared" ref="AJ26" si="74">AJ25-AJ24</f>
+        <f t="shared" ref="AJ26" si="26">AJ25-AJ24</f>
         <v>0</v>
       </c>
       <c r="AK26">
-        <f t="shared" ref="AK26" si="75">AK25-AK24</f>
+        <f t="shared" ref="AK26" si="27">AK25-AK24</f>
         <v>0</v>
       </c>
       <c r="AL26">
-        <f t="shared" ref="AL26" si="76">AL25-AL24</f>
+        <f t="shared" ref="AL26" si="28">AL25-AL24</f>
         <v>0</v>
       </c>
       <c r="AM26">
-        <f t="shared" ref="AM26" si="77">AM25-AM24</f>
+        <f t="shared" ref="AM26" si="29">AM25-AM24</f>
         <v>0</v>
       </c>
       <c r="AN26">
-        <f t="shared" ref="AN26" si="78">AN25-AN24</f>
+        <f t="shared" ref="AN26" si="30">AN25-AN24</f>
         <v>0</v>
       </c>
       <c r="AO26">
-        <f t="shared" ref="AO26" si="79">AO25-AO24</f>
+        <f t="shared" ref="AO26" si="31">AO25-AO24</f>
         <v>0</v>
       </c>
       <c r="AP26">
-        <f t="shared" ref="AP26" si="80">AP25-AP24</f>
+        <f t="shared" ref="AP26" si="32">AP25-AP24</f>
         <v>0</v>
       </c>
       <c r="AQ26">
-        <f t="shared" ref="AQ26" si="81">AQ25-AQ24</f>
+        <f t="shared" ref="AQ26" si="33">AQ25-AQ24</f>
         <v>0</v>
       </c>
       <c r="AR26">
-        <f t="shared" ref="AR26" si="82">AR25-AR24</f>
+        <f t="shared" ref="AR26" si="34">AR25-AR24</f>
         <v>0</v>
       </c>
       <c r="AS26">
-        <f t="shared" ref="AS26" si="83">AS25-AS24</f>
+        <f t="shared" ref="AS26" si="35">AS25-AS24</f>
         <v>0</v>
       </c>
       <c r="AT26">
-        <f t="shared" ref="AT26" si="84">AT25-AT24</f>
+        <f t="shared" ref="AT26" si="36">AT25-AT24</f>
         <v>0</v>
       </c>
       <c r="AU26">
-        <f t="shared" ref="AU26" si="85">AU25-AU24</f>
+        <f t="shared" ref="AU26" si="37">AU25-AU24</f>
         <v>0</v>
       </c>
       <c r="AV26">
-        <f t="shared" ref="AV26" si="86">AV25-AV24</f>
+        <f t="shared" ref="AV26" si="38">AV25-AV24</f>
         <v>0</v>
       </c>
       <c r="AW26">
-        <f t="shared" ref="AW26" si="87">AW25-AW24</f>
+        <f t="shared" ref="AW26" si="39">AW25-AW24</f>
         <v>0</v>
       </c>
       <c r="AX26">
-        <f t="shared" ref="AX26" si="88">AX25-AX24</f>
+        <f t="shared" ref="AX26" si="40">AX25-AX24</f>
         <v>0</v>
       </c>
       <c r="AY26">
-        <f t="shared" ref="AY26" si="89">AY25-AY24</f>
+        <f t="shared" ref="AY26" si="41">AY25-AY24</f>
         <v>0</v>
       </c>
       <c r="AZ26">
-        <f t="shared" ref="AZ26" si="90">AZ25-AZ24</f>
+        <f t="shared" ref="AZ26" si="42">AZ25-AZ24</f>
         <v>0</v>
       </c>
       <c r="BA26">
-        <f t="shared" ref="BA26" si="91">BA25-BA24</f>
+        <f t="shared" ref="BA26" si="43">BA25-BA24</f>
         <v>0</v>
       </c>
       <c r="BB26">
-        <f t="shared" ref="BB26" si="92">BB25-BB24</f>
+        <f t="shared" ref="BB26" si="44">BB25-BB24</f>
         <v>0</v>
       </c>
       <c r="BC26">
-        <f t="shared" ref="BC26" si="93">BC25-BC24</f>
+        <f t="shared" ref="BC26" si="45">BC25-BC24</f>
         <v>0</v>
       </c>
       <c r="BD26">
-        <f t="shared" ref="BD26" si="94">BD25-BD24</f>
+        <f t="shared" ref="BD26" si="46">BD25-BD24</f>
         <v>0</v>
       </c>
       <c r="BE26">
-        <f t="shared" ref="BE26" si="95">BE25-BE24</f>
+        <f t="shared" ref="BE26" si="47">BE25-BE24</f>
         <v>0</v>
       </c>
       <c r="BF26">
-        <f t="shared" ref="BF26" si="96">BF25-BF24</f>
+        <f t="shared" ref="BF26" si="48">BF25-BF24</f>
         <v>0</v>
       </c>
       <c r="BG26">
-        <f t="shared" ref="BG26" si="97">BG25-BG24</f>
+        <f t="shared" ref="BG26" si="49">BG25-BG24</f>
         <v>0</v>
       </c>
       <c r="BH26">
-        <f t="shared" ref="BH26" si="98">BH25-BH24</f>
+        <f t="shared" ref="BH26" si="50">BH25-BH24</f>
         <v>0</v>
       </c>
       <c r="BI26">
-        <f t="shared" ref="BI26" si="99">BI25-BI24</f>
+        <f t="shared" ref="BI26" si="51">BI25-BI24</f>
         <v>0</v>
       </c>
       <c r="BJ26">
-        <f t="shared" ref="BJ26" si="100">BJ25-BJ24</f>
+        <f t="shared" ref="BJ26" si="52">BJ25-BJ24</f>
         <v>0</v>
       </c>
       <c r="BK26">
-        <f t="shared" ref="BK26" si="101">BK25-BK24</f>
+        <f t="shared" ref="BK26" si="53">BK25-BK24</f>
         <v>0</v>
       </c>
       <c r="BL26">
-        <f t="shared" ref="BL26" si="102">BL25-BL24</f>
+        <f t="shared" ref="BL26" si="54">BL25-BL24</f>
         <v>0</v>
       </c>
       <c r="BM26">
-        <f t="shared" ref="BM26" si="103">BM25-BM24</f>
+        <f t="shared" ref="BM26" si="55">BM25-BM24</f>
         <v>0</v>
       </c>
       <c r="BN26">
-        <f t="shared" ref="BN26" si="104">BN25-BN24</f>
+        <f t="shared" ref="BN26" si="56">BN25-BN24</f>
         <v>0</v>
       </c>
       <c r="BO26">
-        <f t="shared" ref="BO26" si="105">BO25-BO24</f>
+        <f t="shared" ref="BO26" si="57">BO25-BO24</f>
         <v>0</v>
       </c>
       <c r="BP26">
-        <f t="shared" ref="BP26" si="106">BP25-BP24</f>
+        <f t="shared" ref="BP26" si="58">BP25-BP24</f>
         <v>0</v>
       </c>
       <c r="BQ26">
-        <f t="shared" ref="BQ26" si="107">BQ25-BQ24</f>
+        <f t="shared" ref="BQ26" si="59">BQ25-BQ24</f>
         <v>0</v>
       </c>
       <c r="BR26">
-        <f t="shared" ref="BR26" si="108">BR25-BR24</f>
+        <f t="shared" ref="BR26" si="60">BR25-BR24</f>
         <v>0</v>
       </c>
       <c r="BS26">
-        <f t="shared" ref="BS26" si="109">BS25-BS24</f>
+        <f t="shared" ref="BS26" si="61">BS25-BS24</f>
         <v>0</v>
       </c>
       <c r="BT26">
-        <f t="shared" ref="BT26" si="110">BT25-BT24</f>
+        <f t="shared" ref="BT26" si="62">BT25-BT24</f>
         <v>0</v>
       </c>
       <c r="BU26">
-        <f t="shared" ref="BU26" si="111">BU25-BU24</f>
+        <f t="shared" ref="BU26" si="63">BU25-BU24</f>
         <v>0</v>
       </c>
       <c r="BV26">
-        <f t="shared" ref="BV26" si="112">BV25-BV24</f>
+        <f t="shared" ref="BV26" si="64">BV25-BV24</f>
         <v>0</v>
       </c>
     </row>
